--- a/output/StructureDefinition-fertility-observation.xlsx
+++ b/output/StructureDefinition-fertility-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-27T22:28:35+00:00</t>
+    <t>2025-01-02T17:46:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-fertility-observation.xlsx
+++ b/output/StructureDefinition-fertility-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T17:46:41+00:00</t>
+    <t>2025-01-02T19:32:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-fertility-observation.xlsx
+++ b/output/StructureDefinition-fertility-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-02T19:32:36+00:00</t>
+    <t>2025-01-03T09:54:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-fertility-observation.xlsx
+++ b/output/StructureDefinition-fertility-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-03T09:54:59+00:00</t>
+    <t>2025-01-04T21:28:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-fertility-observation.xlsx
+++ b/output/StructureDefinition-fertility-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-04T21:28:42+00:00</t>
+    <t>2025-01-04T22:09:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-fertility-observation.xlsx
+++ b/output/StructureDefinition-fertility-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-04T22:09:55+00:00</t>
+    <t>2025-01-04T22:27:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-fertility-observation.xlsx
+++ b/output/StructureDefinition-fertility-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-04T22:27:27+00:00</t>
+    <t>2025-01-04T22:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-fertility-observation.xlsx
+++ b/output/StructureDefinition-fertility-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-04T22:47:01+00:00</t>
+    <t>2025-01-14T13:24:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-fertility-observation.xlsx
+++ b/output/StructureDefinition-fertility-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-14T13:24:18+00:00</t>
+    <t>2025-01-24T12:30:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-fertility-observation.xlsx
+++ b/output/StructureDefinition-fertility-observation.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://github.com/RicardoLSantos/shorthand/StructureDefinition/fertility-observation</t>
+    <t>https://2rdoc.pt/ig/ios-lifestyle-medicine/StructureDefinition/fertility-observation</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-24T12:30:11+00:00</t>
+    <t>2025-08-20T10:40:04+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1481,7 +1481,7 @@
     <t>valueCodeableConcept</t>
   </si>
   <si>
-    <t>http://example.org/fhir/ValueSet/cervical-mucus-vs</t>
+    <t>https://2rdoc.pt/fhir/ValueSet/cervical-mucus-vs</t>
   </si>
   <si>
     <t>Observation.component:cervicalMucus.dataAbsentReason</t>
@@ -1517,7 +1517,7 @@
     <t>Observation.component:ovulationTest.value[x]:valueCodeableConcept</t>
   </si>
   <si>
-    <t>http://example.org/fhir/ValueSet/ovulation-test-vs</t>
+    <t>https://2rdoc.pt/fhir/ValueSet/ovulation-test-vs</t>
   </si>
   <si>
     <t>Observation.component:ovulationTest.dataAbsentReason</t>
@@ -1553,7 +1553,7 @@
     <t>Observation.component:fertilityStatus.value[x]:valueCodeableConcept</t>
   </si>
   <si>
-    <t>http://example.org/fhir/ValueSet/fertility-status-vs</t>
+    <t>https://2rdoc.pt/fhir/ValueSet/fertility-status-vs</t>
   </si>
   <si>
     <t>Observation.component:fertilityStatus.dataAbsentReason</t>
@@ -1891,17 +1891,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="63.765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="42.9296875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="21.3125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.00390625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="37.03125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="18.38671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="107.140625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="92.421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1910,28 +1910,28 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.04296875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="61.7265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="50.921875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="18.84765625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="39.421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="7.80078125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.24609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="43.92578125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="16.2578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="34.0078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="245.78125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="23.0234375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="212.015625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="102.73828125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="38.60546875" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="88.625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="28.5078125" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="33.30078125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/output/StructureDefinition-fertility-observation.xlsx
+++ b/output/StructureDefinition-fertility-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T10:40:04+01:00</t>
+    <t>2025-08-20T17:48:34+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-fertility-observation.xlsx
+++ b/output/StructureDefinition-fertility-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T16:36:18+01:00</t>
+    <t>2025-10-01T23:24:47+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-fertility-observation.xlsx
+++ b/output/StructureDefinition-fertility-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-01T23:24:47+01:00</t>
+    <t>2025-10-02T07:31:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-fertility-observation.xlsx
+++ b/output/StructureDefinition-fertility-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T07:31:55+01:00</t>
+    <t>2025-10-02T11:12:29+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-fertility-observation.xlsx
+++ b/output/StructureDefinition-fertility-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T11:12:29+01:00</t>
+    <t>2025-10-02T18:31:12+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3560,7 +3560,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
         <v>182</v>
       </c>
@@ -3682,7 +3682,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>195</v>
       </c>
@@ -3926,7 +3926,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>222</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
         <v>262</v>
       </c>
@@ -8274,7 +8274,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
         <v>461</v>
       </c>
@@ -9488,7 +9488,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
         <v>474</v>
       </c>
@@ -10702,7 +10702,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
         <v>486</v>
       </c>
@@ -11918,12 +11918,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP82">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/output/StructureDefinition-fertility-observation.xlsx
+++ b/output/StructureDefinition-fertility-observation.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3205" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3205" uniqueCount="501">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-02T18:31:12+01:00</t>
+    <t>2025-10-03T16:37:46+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1490,6 +1490,15 @@
     <t>Observation.component:cervicalMucus.code</t>
   </si>
   <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://snomed.info/sct"/&gt;
+    &lt;code value="289567002"/&gt;
+    &lt;display value="Cervical mucus"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>Observation.component:cervicalMucus.value[x]</t>
   </si>
   <si>
@@ -1529,6 +1538,15 @@
     <t>Observation.component:ovulationTest.code</t>
   </si>
   <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://snomed.info/sct"/&gt;
+    &lt;code value="252366009"/&gt;
+    &lt;display value="Ovulation test"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>Observation.component:ovulationTest.value[x]</t>
   </si>
   <si>
@@ -1563,6 +1581,15 @@
   </si>
   <si>
     <t>Observation.component:fertilityStatus.code</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://snomed.info/sct"/&gt;
+    &lt;code value="87527008"/&gt;
+    &lt;display value="Fertility status"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>Observation.component:fertilityStatus.value[x]</t>
@@ -8808,7 +8835,7 @@
         <v>87</v>
       </c>
       <c r="S57" t="s" s="2">
-        <v>87</v>
+        <v>467</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>87</v>
@@ -8882,7 +8909,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>449</v>
@@ -9002,13 +9029,13 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>449</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D59" t="s" s="2">
         <v>87</v>
@@ -9071,7 +9098,7 @@
       </c>
       <c r="Y59" s="2"/>
       <c r="Z59" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>87</v>
@@ -9124,7 +9151,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>453</v>
@@ -9246,7 +9273,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>457</v>
@@ -9368,7 +9395,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>458</v>
@@ -9490,13 +9517,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>432</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>87</v>
@@ -9614,7 +9641,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>441</v>
@@ -9732,7 +9759,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>442</v>
@@ -9852,7 +9879,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>443</v>
@@ -9974,7 +10001,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>444</v>
@@ -10022,7 +10049,7 @@
         <v>87</v>
       </c>
       <c r="S67" t="s" s="2">
-        <v>87</v>
+        <v>481</v>
       </c>
       <c r="T67" t="s" s="2">
         <v>87</v>
@@ -10096,7 +10123,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>449</v>
@@ -10216,13 +10243,13 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>449</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D69" t="s" s="2">
         <v>87</v>
@@ -10285,7 +10312,7 @@
       </c>
       <c r="Y69" s="2"/>
       <c r="Z69" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>87</v>
@@ -10338,7 +10365,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>453</v>
@@ -10460,7 +10487,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B71" t="s" s="2">
         <v>457</v>
@@ -10582,7 +10609,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>458</v>
@@ -10704,13 +10731,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>432</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D73" t="s" s="2">
         <v>87</v>
@@ -10828,7 +10855,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B74" t="s" s="2">
         <v>441</v>
@@ -10946,7 +10973,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="B75" t="s" s="2">
         <v>442</v>
@@ -11066,7 +11093,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B76" t="s" s="2">
         <v>443</v>
@@ -11188,7 +11215,7 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B77" t="s" s="2">
         <v>444</v>
@@ -11236,7 +11263,7 @@
         <v>87</v>
       </c>
       <c r="S77" t="s" s="2">
-        <v>87</v>
+        <v>494</v>
       </c>
       <c r="T77" t="s" s="2">
         <v>87</v>
@@ -11310,7 +11337,7 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B78" t="s" s="2">
         <v>449</v>
@@ -11430,13 +11457,13 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B79" t="s" s="2">
         <v>449</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D79" t="s" s="2">
         <v>87</v>
@@ -11499,7 +11526,7 @@
       </c>
       <c r="Y79" s="2"/>
       <c r="Z79" t="s" s="2">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>87</v>
@@ -11552,7 +11579,7 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="B80" t="s" s="2">
         <v>453</v>
@@ -11674,7 +11701,7 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="B81" t="s" s="2">
         <v>457</v>
@@ -11796,7 +11823,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>458</v>

--- a/output/StructureDefinition-fertility-observation.xlsx
+++ b/output/StructureDefinition-fertility-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T16:37:46+01:00</t>
+    <t>2025-11-27T11:57:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1492,9 +1492,9 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://snomed.info/sct"/&gt;
-    &lt;code value="289567002"/&gt;
-    &lt;display value="Cervical mucus"/&gt;
+    &lt;system value="http://loinc.org"/&gt;
+    &lt;code value="10570-0"/&gt;
+    &lt;display value="Consistency of Cervical mucus"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1540,9 +1540,9 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://snomed.info/sct"/&gt;
-    &lt;code value="252366009"/&gt;
-    &lt;display value="Ovulation test"/&gt;
+    &lt;system value="http://loinc.org"/&gt;
+    &lt;code value="11976-8"/&gt;
+    &lt;display value="Ovulation date"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>
@@ -1585,9 +1585,9 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
-    &lt;system value="http://snomed.info/sct"/&gt;
-    &lt;code value="87527008"/&gt;
-    &lt;display value="Fertility status"/&gt;
+    &lt;system value="http://loinc.org"/&gt;
+    &lt;code value="82810-3"/&gt;
+    &lt;display value="Pregnancy status"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
   </si>

--- a/output/StructureDefinition-fertility-observation.xlsx
+++ b/output/StructureDefinition-fertility-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T11:57:11+00:00</t>
+    <t>2025-11-27T15:44:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-fertility-observation.xlsx
+++ b/output/StructureDefinition-fertility-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T17:03:01+00:00</t>
+    <t>2025-11-28T14:35:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-fertility-observation.xlsx
+++ b/output/StructureDefinition-fertility-observation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-28T14:35:57+00:00</t>
+    <t>2025-11-30T13:08:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
